--- a/doc/Dクラス進捗管理表.xlsx
+++ b/doc/Dクラス進捗管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C5BCCB-5B04-469E-9863-63B0F3805D6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DE8B85-FE8C-4CFD-9DA7-D80DD14D953B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="50" windowWidth="16270" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="70" windowWidth="16270" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -334,6 +334,29 @@
     <t xml:space="preserve">終了 </t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古川（主）</t>
+    <rPh sb="0" eb="2">
+      <t>フルカワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川口・小神野（主）</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>オガミノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -462,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -735,6 +758,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -799,6 +846,120 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,128 +1017,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,13 +1351,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:O19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18:AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="27" width="3.25" style="1"/>
+    <col min="1" max="17" width="3.25" style="1"/>
+    <col min="18" max="18" width="10.1640625" style="1" customWidth="1"/>
+    <col min="19" max="27" width="3.25" style="1"/>
     <col min="28" max="29" width="3.25" style="1" customWidth="1"/>
     <col min="30" max="32" width="3.25" style="1"/>
     <col min="33" max="33" width="3.25" style="1" customWidth="1"/>
@@ -1318,139 +1367,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="32" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="26" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="23">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="61">
         <v>45078</v>
       </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="25"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="26" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="23">
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="61">
         <v>45107</v>
       </c>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="25"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="63"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="30" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30" t="s">
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="29" t="s">
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1575,41 +1624,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30" t="s">
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30" t="s">
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1732,33 +1781,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1881,35 +1930,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -1942,41 +1991,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="41">
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="30">
         <v>45078</v>
       </c>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41">
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30">
         <v>45078</v>
       </c>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="38" t="s">
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2009,41 +2058,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="41">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="30">
         <v>45078</v>
       </c>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41">
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>45079</v>
       </c>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="38" t="s">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2076,18 +2125,18 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="4"/>
@@ -2120,43 +2169,43 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="39" t="s">
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="41">
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="30">
         <v>45079</v>
       </c>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41">
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30">
         <v>45082</v>
       </c>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="38" t="s">
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="4"/>
@@ -2188,41 +2237,41 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="46" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="41">
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="30">
         <v>45079</v>
       </c>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41">
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30">
         <v>45082</v>
       </c>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="38" t="s">
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="4"/>
@@ -2255,46 +2304,46 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="42" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="41">
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="30">
         <v>45082</v>
       </c>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41">
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30">
         <v>45082</v>
       </c>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="38" t="s">
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="77"/>
+      <c r="AF13" s="25"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -2322,33 +2371,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2381,37 +2430,37 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2444,48 +2493,48 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="49" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="41">
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="30">
         <v>45083</v>
       </c>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41">
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30">
         <v>45084</v>
       </c>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="38" t="s">
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
@@ -2511,41 +2560,43 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="61" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="41">
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="30">
         <v>45083</v>
       </c>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41">
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30">
         <v>45084</v>
       </c>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="76">
-        <v>0.8</v>
-      </c>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2578,41 +2629,43 @@
       <c r="BE17" s="4"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="61" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="41">
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="30">
         <v>45083</v>
       </c>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41">
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30">
         <v>45084</v>
       </c>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="76">
-        <v>0.1</v>
-      </c>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2645,33 +2698,33 @@
       <c r="BE18" s="4"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="60"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="38"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2704,37 +2757,37 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="39" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="39" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2769,39 +2822,39 @@
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="61" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="41">
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30">
         <v>45085</v>
       </c>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41">
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30">
         <v>45086</v>
       </c>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="38" t="s">
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2841,34 +2894,34 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="41">
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="30">
         <v>45085</v>
       </c>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41">
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30">
         <v>45086</v>
       </c>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="38" t="s">
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2901,33 +2954,33 @@
       <c r="BE22" s="4"/>
     </row>
     <row r="23" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="60"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="38"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2960,41 +3013,41 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="41">
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="30">
         <v>45089</v>
       </c>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41">
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30">
         <v>45100</v>
       </c>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3027,33 +3080,33 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3061,8 +3114,8 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="70"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="19"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
@@ -3086,33 +3139,33 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3120,7 +3173,7 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="72"/>
+      <c r="AI26" s="21"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
@@ -3144,41 +3197,41 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="41">
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="30">
         <v>45096</v>
       </c>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41">
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30">
         <v>45100</v>
       </c>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3211,41 +3264,41 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="41">
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="30">
         <v>45096</v>
       </c>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41">
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30">
         <v>45100</v>
       </c>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3257,17 +3310,17 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="13"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="74"/>
-      <c r="AO28" s="74"/>
-      <c r="AP28" s="75"/>
-      <c r="AQ28" s="74"/>
-      <c r="AR28" s="74"/>
-      <c r="AS28" s="74"/>
-      <c r="AT28" s="74"/>
-      <c r="AU28" s="74"/>
-      <c r="AV28" s="74"/>
-      <c r="AW28" s="74"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="24"/>
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="23"/>
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="23"/>
       <c r="AY28" s="4"/>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
@@ -3277,41 +3330,41 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="41">
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="30">
         <v>45103</v>
       </c>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41">
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30">
         <v>45105</v>
       </c>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3344,41 +3397,41 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="41">
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="30">
         <v>45089</v>
       </c>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41">
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30">
         <v>45105</v>
       </c>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3411,33 +3464,33 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3470,35 +3523,35 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3531,33 +3584,33 @@
       <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3587,36 +3640,36 @@
       <c r="BB33" s="13"/>
       <c r="BC33" s="13"/>
       <c r="BD33" s="13"/>
-      <c r="BE33" s="73"/>
+      <c r="BE33" s="22"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3649,33 +3702,33 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3719,63 +3772,136 @@
     <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="211">
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
+  <mergeCells count="210">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="Y35:AA35"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C25:G25"/>
@@ -3800,137 +3926,63 @@
     <mergeCell ref="V29:X29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="H17:O17"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="H22:O22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/Dクラス進捗管理表.xlsx
+++ b/doc/Dクラス進捗管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DE8B85-FE8C-4CFD-9DA7-D80DD14D953B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C34E335-42A1-45DD-8D12-06555CBC2902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="70" windowWidth="16270" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10" yWindow="280" windowWidth="19140" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -357,6 +357,30 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　DB定義書</t>
+    <rPh sb="3" eb="6">
+      <t>テイギショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石戸（主）</t>
+    <rPh sb="0" eb="2">
+      <t>イシド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -485,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -782,13 +806,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,19 +912,130 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,136 +1047,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG46"/>
+  <dimension ref="A1:BG47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18:AA18"/>
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1367,139 +1430,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="70" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="64" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="61">
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="31">
         <v>45078</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="63"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="64" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="61">
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="31">
         <v>45107</v>
       </c>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="63"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="68" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68" t="s">
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="67" t="s">
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1624,41 +1687,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68" t="s">
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1781,33 +1844,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1930,35 +1993,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="35" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -1991,41 +2054,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="37" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="30">
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="49">
         <v>45078</v>
       </c>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30">
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49">
         <v>45078</v>
       </c>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="31" t="s">
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2058,41 +2121,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="37" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="30">
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="49">
         <v>45078</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49">
         <v>45079</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="31" t="s">
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2125,18 +2188,18 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="35" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="4"/>
@@ -2169,43 +2232,43 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="37" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="35" t="s">
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="30">
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="49">
         <v>45079</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30">
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49">
         <v>45082</v>
       </c>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="31" t="s">
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="4"/>
@@ -2237,13 +2300,13 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="54" t="s">
         <v>33</v>
       </c>
@@ -2254,24 +2317,24 @@
       <c r="M12" s="55"/>
       <c r="N12" s="55"/>
       <c r="O12" s="56"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
       <c r="R12" s="53"/>
-      <c r="S12" s="30">
+      <c r="S12" s="49">
         <v>45079</v>
       </c>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30">
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49">
         <v>45082</v>
       </c>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="31" t="s">
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="4"/>
@@ -2304,41 +2367,41 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="52" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="30">
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="49">
         <v>45082</v>
       </c>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30">
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49">
         <v>45082</v>
       </c>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="31" t="s">
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2371,33 +2434,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2430,37 +2493,37 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="35" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2493,41 +2556,41 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="51" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="30">
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="49">
         <v>45083</v>
       </c>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30">
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49">
         <v>45084</v>
       </c>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="31" t="s">
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -2560,43 +2623,43 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="32" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35" t="s">
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="30">
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="49">
         <v>45083</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30">
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49">
         <v>45084</v>
       </c>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="36">
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="75">
         <v>0.6</v>
       </c>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2631,41 +2694,41 @@
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="32" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="27" t="s">
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="30">
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="49">
         <v>45083</v>
       </c>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30">
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49">
         <v>45084</v>
       </c>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="36">
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="75">
         <v>0.3</v>
       </c>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2698,42 +2761,52 @@
       <c r="BE18" s="4"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="38"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="49">
+        <v>45084</v>
+      </c>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49">
+        <v>45084</v>
+      </c>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="85"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
@@ -2757,37 +2830,33 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="63"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2820,41 +2889,37 @@
       <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="30">
-        <v>45085</v>
-      </c>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30">
-        <v>45086</v>
-      </c>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2862,8 +2927,8 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="13"/>
       <c r="AH21" s="13"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
@@ -2889,39 +2954,39 @@
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="30">
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="49">
         <v>45085</v>
       </c>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30">
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49">
         <v>45086</v>
       </c>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="31" t="s">
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2953,43 +3018,51 @@
       <c r="BD22" s="4"/>
       <c r="BE22" s="4"/>
     </row>
-    <row r="23" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="38"/>
+    <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="49">
+        <v>45085</v>
+      </c>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49">
+        <v>45086</v>
+      </c>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
@@ -3013,41 +3086,33 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="30">
-        <v>45089</v>
-      </c>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30">
-        <v>45100</v>
-      </c>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="63"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3059,18 +3124,18 @@
       <c r="AJ24" s="13"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="18"/>
-      <c r="AN24" s="18"/>
-      <c r="AO24" s="18"/>
-      <c r="AP24" s="18"/>
-      <c r="AQ24" s="18"/>
-      <c r="AR24" s="18"/>
-      <c r="AS24" s="18"/>
-      <c r="AT24" s="18"/>
-      <c r="AU24" s="18"/>
-      <c r="AV24" s="18"/>
-      <c r="AW24" s="18"/>
-      <c r="AX24" s="18"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
       <c r="AY24" s="4"/>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="4"/>
@@ -3080,33 +3145,41 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="49">
+        <v>45089</v>
+      </c>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49">
+        <v>45100</v>
+      </c>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3114,22 +3187,22 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="19"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="18"/>
       <c r="AY25" s="4"/>
       <c r="AZ25" s="4"/>
       <c r="BA25" s="4"/>
@@ -3139,33 +3212,33 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3173,7 +3246,8 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="21"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="19"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
@@ -3197,41 +3271,33 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="30">
-        <v>45096</v>
-      </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30">
-        <v>45100</v>
-      </c>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3239,8 +3305,7 @@
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
+      <c r="AI27" s="21"/>
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
@@ -3263,42 +3328,42 @@
       <c r="BD27" s="4"/>
       <c r="BE27" s="4"/>
     </row>
-    <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35" t="s">
+    <row r="28" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="30">
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="49">
         <v>45096</v>
       </c>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30">
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49">
         <v>45100</v>
       </c>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3309,18 +3374,19 @@
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="24"/>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="23"/>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
       <c r="AY28" s="4"/>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
@@ -3330,41 +3396,41 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="30">
-        <v>45103</v>
-      </c>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30">
-        <v>45105</v>
-      </c>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="49">
+        <v>45096</v>
+      </c>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49">
+        <v>45100</v>
+      </c>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3375,19 +3441,18 @@
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
-      <c r="AV29" s="4"/>
-      <c r="AW29" s="4"/>
-      <c r="AX29" s="4"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
+      <c r="AS29" s="23"/>
+      <c r="AT29" s="23"/>
+      <c r="AU29" s="23"/>
+      <c r="AV29" s="23"/>
+      <c r="AW29" s="23"/>
       <c r="AY29" s="4"/>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
@@ -3397,41 +3462,41 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="30">
-        <v>45089</v>
-      </c>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="49">
+        <v>45103</v>
+      </c>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49">
         <v>45105</v>
       </c>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3464,33 +3529,41 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="49">
+        <v>45089</v>
+      </c>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49">
+        <v>45105</v>
+      </c>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3516,42 +3589,40 @@
       <c r="AX31" s="4"/>
       <c r="AY31" s="4"/>
       <c r="AZ31" s="4"/>
-      <c r="BA31" s="13"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="13"/>
-      <c r="BD31" s="13"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3581,36 +3652,38 @@
       <c r="BB32" s="13"/>
       <c r="BC32" s="13"/>
       <c r="BD32" s="13"/>
-      <c r="BE32" s="9"/>
+      <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3640,36 +3713,36 @@
       <c r="BB33" s="13"/>
       <c r="BC33" s="13"/>
       <c r="BD33" s="13"/>
-      <c r="BE33" s="22"/>
+      <c r="BE33" s="9"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3695,40 +3768,40 @@
       <c r="AX34" s="4"/>
       <c r="AY34" s="4"/>
       <c r="AZ34" s="4"/>
-      <c r="BA34" s="4"/>
-      <c r="BB34" s="4"/>
-      <c r="BC34" s="4"/>
-      <c r="BD34" s="4"/>
-      <c r="BE34" s="4"/>
+      <c r="BA34" s="13"/>
+      <c r="BB34" s="13"/>
+      <c r="BC34" s="13"/>
+      <c r="BD34" s="13"/>
+      <c r="BE34" s="22"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3760,7 +3833,65 @@
       <c r="BD35" s="4"/>
       <c r="BE35" s="4"/>
     </row>
-    <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+    </row>
     <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3771,179 +3902,32 @@
     <row r="44" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="210">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A19:B19"/>
+  <mergeCells count="215">
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="H23:O23"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="S19:U19"/>
     <mergeCell ref="V19:X19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="H17:O17"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="H7:O7"/>
     <mergeCell ref="P7:R7"/>
@@ -3964,25 +3948,178 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H18:O18"/>
     <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/Dクラス進捗管理表.xlsx
+++ b/doc/Dクラス進捗管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C34E335-42A1-45DD-8D12-06555CBC2902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E381945-A14C-4DA9-9BD7-465843BF626A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="280" windowWidth="19140" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1810" yWindow="430" windowWidth="14400" windowHeight="8380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -374,13 +374,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -912,6 +905,126 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,126 +1081,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1414,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18:AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1430,139 +1423,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="40" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="34" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="31">
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="71">
         <v>45078</v>
       </c>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="73"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="34" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="31">
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="71">
         <v>45107</v>
       </c>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="33"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="38" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38" t="s">
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="37" t="s">
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1687,41 +1680,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38" t="s">
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38" t="s">
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1844,33 +1837,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1993,35 +1986,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -2054,41 +2047,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="49">
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="33">
         <v>45078</v>
       </c>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49">
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33">
         <v>45078</v>
       </c>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="46" t="s">
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2121,41 +2114,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="49">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="33">
         <v>45078</v>
       </c>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49">
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>45079</v>
       </c>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2188,18 +2181,18 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="4"/>
@@ -2232,43 +2225,43 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="47" t="s">
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="49">
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="33">
         <v>45079</v>
       </c>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49">
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33">
         <v>45082</v>
       </c>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="46" t="s">
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="4"/>
@@ -2300,41 +2293,41 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="54" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="49">
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="33">
         <v>45079</v>
       </c>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49">
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33">
         <v>45082</v>
       </c>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="46" t="s">
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="4"/>
@@ -2367,41 +2360,41 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="50" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="49">
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="33">
         <v>45082</v>
       </c>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49">
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33">
         <v>45082</v>
       </c>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="46" t="s">
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2434,33 +2427,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2493,37 +2486,37 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2556,41 +2549,41 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="57" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="49">
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="33">
         <v>45083</v>
       </c>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49">
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33">
         <v>45084</v>
       </c>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="46" t="s">
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -2623,43 +2616,43 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="69" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="47" t="s">
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="49">
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="33">
         <v>45083</v>
       </c>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49">
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33">
         <v>45084</v>
       </c>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="75">
-        <v>0.6</v>
-      </c>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2694,41 +2687,41 @@
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="69" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="61" t="s">
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="49">
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="33">
         <v>45083</v>
       </c>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49">
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33">
         <v>45084</v>
       </c>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="75">
-        <v>0.3</v>
-      </c>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2763,41 +2756,41 @@
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="69" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="65" t="s">
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="49">
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33">
         <v>45084</v>
       </c>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49">
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33">
         <v>45084</v>
       </c>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="85"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2830,33 +2823,33 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="63"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="46"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2889,37 +2882,37 @@
       <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="47" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="47" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2954,39 +2947,39 @@
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="69" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="49">
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33">
         <v>45085</v>
       </c>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49">
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33">
         <v>45086</v>
       </c>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="46" t="s">
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -3026,34 +3019,34 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="49">
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="33">
         <v>45085</v>
       </c>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49">
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33">
         <v>45086</v>
       </c>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="46" t="s">
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3086,33 +3079,33 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="63"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="46"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3145,41 +3138,41 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="49">
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="33">
         <v>45089</v>
       </c>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49">
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33">
         <v>45100</v>
       </c>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3212,33 +3205,33 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3271,33 +3264,33 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3329,41 +3322,41 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47" t="s">
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="49">
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="33">
         <v>45096</v>
       </c>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49">
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33">
         <v>45100</v>
       </c>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3396,41 +3389,41 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47" t="s">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="49">
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="33">
         <v>45096</v>
       </c>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49">
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33">
         <v>45100</v>
       </c>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3462,41 +3455,41 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47" t="s">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="49">
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="33">
         <v>45103</v>
       </c>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49">
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33">
         <v>45105</v>
       </c>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3529,41 +3522,41 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="49">
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="33">
         <v>45089</v>
       </c>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49">
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33">
         <v>45105</v>
       </c>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3596,33 +3589,33 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3655,35 +3648,35 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3716,33 +3709,33 @@
       <c r="BE33" s="9"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3775,33 +3768,33 @@
       <c r="BE34" s="22"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3834,33 +3827,33 @@
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3905,67 +3898,136 @@
     <row r="47" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="Y36:AA36"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C26:G26"/>
@@ -3990,136 +4052,67 @@
     <mergeCell ref="V30:X30"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:G33"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">
